--- a/upload/users/import/Data_thu_vien_chung1.xlsx
+++ b/upload/users/import/Data_thu_vien_chung1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Confirm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
   <si>
     <t>Exporting Date</t>
   </si>
   <si>
+    <t xml:space="preserve"> Contract No.(Latest Loan)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> CIF</t>
   </si>
   <si>
@@ -44,9 +47,30 @@
     <t xml:space="preserve"> Mobile Phone No.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Product(MB/CE/PL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interest Rate(Latest Loan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First due date(Latest Loan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Term(Latest Loan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balance(Latest Loan)</t>
+  </si>
+  <si>
     <t>Debt group</t>
   </si>
   <si>
+    <t xml:space="preserve"> No. of late(10-29 days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. of late( &gt; 30 days)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PL-Interest Rate</t>
   </si>
   <si>
@@ -65,127 +89,292 @@
     <t>Area PL</t>
   </si>
   <si>
-    <t>Ngày xuất báo cáo</t>
-  </si>
-  <si>
-    <t>Số hợp đồng</t>
-  </si>
-  <si>
-    <t>CIF</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Số CMNd</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Sản phẩm (MB/CE/PL)</t>
-  </si>
-  <si>
-    <t>Lãi suất</t>
-  </si>
-  <si>
-    <t>Ngày thanh toán đầu tiên</t>
-  </si>
-  <si>
-    <t>Kỳ hạn</t>
-  </si>
-  <si>
-    <t>Dư nợ (khoản vay gần nhất)</t>
-  </si>
-  <si>
-    <t>Nhóm nợ</t>
-  </si>
-  <si>
-    <t>Số lần trễ (10-29 ngày)</t>
-  </si>
-  <si>
-    <t>Số lần trễ (&gt;30 ngày)</t>
-  </si>
-  <si>
-    <t>Lãi suất PL</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Code Đại lý</t>
-  </si>
-  <si>
-    <t>Khu vực</t>
+    <t>Người phụ trách</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Nguồn Khách hàng</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>le thanh hung</t>
-  </si>
-  <si>
-    <t>dđsddđ</t>
-  </si>
-  <si>
-    <t>cham</t>
-  </si>
-  <si>
-    <t>ownership</t>
-  </si>
-  <si>
-    <t>date_send_data</t>
-  </si>
-  <si>
-    <t>date_receive_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> First due date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No. of late 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No. of late 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interest Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contract No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product</t>
-  </si>
-  <si>
-    <t>23-04-2015</t>
-  </si>
-  <si>
-    <t>23-01-1995</t>
-  </si>
-  <si>
-    <t>23-10-2017</t>
-  </si>
-  <si>
-    <t>23-12-2018</t>
-  </si>
-  <si>
-    <t>23-2-2019</t>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>Huynh Van Tri Dung</t>
+  </si>
+  <si>
+    <t>22/02/1991</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Khách thường nợ</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>SC01</t>
+  </si>
+  <si>
+    <t>HCM1</t>
+  </si>
+  <si>
+    <t>22/02/1992</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>31/10/2020</t>
+  </si>
+  <si>
+    <t>SC02</t>
+  </si>
+  <si>
+    <t>HCM2</t>
+  </si>
+  <si>
+    <t>22/02/1993</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>31/10/2021</t>
+  </si>
+  <si>
+    <t>SC03</t>
+  </si>
+  <si>
+    <t>HCM3</t>
+  </si>
+  <si>
+    <t>22/02/1994</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>SC04</t>
+  </si>
+  <si>
+    <t>HCM4</t>
+  </si>
+  <si>
+    <t>22/02/1995</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>SC05</t>
+  </si>
+  <si>
+    <t>HCM5</t>
+  </si>
+  <si>
+    <t>22/02/1996</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>SC06</t>
+  </si>
+  <si>
+    <t>HCM6</t>
+  </si>
+  <si>
+    <t>22/02/1997</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>SC07</t>
+  </si>
+  <si>
+    <t>HCM7</t>
+  </si>
+  <si>
+    <t>22/02/1998</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>31/10/2026</t>
+  </si>
+  <si>
+    <t>SC08</t>
+  </si>
+  <si>
+    <t>HCM8</t>
+  </si>
+  <si>
+    <t>22/02/1999</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>31/10/2027</t>
+  </si>
+  <si>
+    <t>SC09</t>
+  </si>
+  <si>
+    <t>HCM9</t>
+  </si>
+  <si>
+    <t>22/02/2000</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>31/10/2028</t>
+  </si>
+  <si>
+    <t>SC10</t>
+  </si>
+  <si>
+    <t>HCM10</t>
+  </si>
+  <si>
+    <t>22/02/2001</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>31/10/2029</t>
+  </si>
+  <si>
+    <t>SC11</t>
+  </si>
+  <si>
+    <t>HCM11</t>
+  </si>
+  <si>
+    <t>22/02/2002</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>31/10/2030</t>
+  </si>
+  <si>
+    <t>SC12</t>
+  </si>
+  <si>
+    <t>HCM12</t>
+  </si>
+  <si>
+    <t>22/02/2003</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>31/10/2031</t>
+  </si>
+  <si>
+    <t>SC13</t>
+  </si>
+  <si>
+    <t>HCM13</t>
+  </si>
+  <si>
+    <t>22/02/2004</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>31/10/2032</t>
+  </si>
+  <si>
+    <t>SC14</t>
+  </si>
+  <si>
+    <t>HCM14</t>
+  </si>
+  <si>
+    <t>22/02/2005</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>31/10/2033</t>
+  </si>
+  <si>
+    <t>SC15</t>
+  </si>
+  <si>
+    <t>HCM15</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>15/10/2021</t>
+  </si>
+  <si>
+    <t>15/10/2022</t>
+  </si>
+  <si>
+    <t>15/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>15/10/2026</t>
+  </si>
+  <si>
+    <t>15/10/2027</t>
+  </si>
+  <si>
+    <t>15/10/2028</t>
+  </si>
+  <si>
+    <t>15/10/2029</t>
+  </si>
+  <si>
+    <t>15/10/2030</t>
+  </si>
+  <si>
+    <t>15/10/2031</t>
+  </si>
+  <si>
+    <t>15/10/2032</t>
+  </si>
+  <si>
+    <t>15/10/2033</t>
   </si>
 </sst>
 </file>
@@ -193,7 +382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-14809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-14809]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -243,15 +432,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,241 +735,1171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="4"/>
-    <col min="7" max="7" width="12.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="4"/>
+    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9" style="4"/>
+    <col min="20" max="20" width="17.625" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="G2">
+        <v>123456789</v>
+      </c>
+      <c r="H2">
+        <v>912345678</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="J2" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2">
+        <v>999</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>12345</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>123456789</v>
+      </c>
+      <c r="H3">
+        <v>912345678</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.012</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3">
+        <v>999</v>
+      </c>
+      <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4">
+        <v>12345</v>
+      </c>
+      <c r="D4">
+        <v>123456789</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>123456789</v>
+      </c>
+      <c r="H4">
+        <v>912345678</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.012</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4">
+        <v>999</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>12345</v>
+      </c>
+      <c r="D5">
+        <v>123456789</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>123456789</v>
+      </c>
+      <c r="H5">
+        <v>912345678</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.012</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5">
+        <v>999</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>12345</v>
+      </c>
+      <c r="D6">
+        <v>123456789</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>123456789</v>
+      </c>
+      <c r="H6">
+        <v>912345678</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4">
-        <v>234234</v>
-      </c>
-      <c r="D3" s="4">
-        <v>333333</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="4">
-        <v>343242342</v>
-      </c>
-      <c r="H3" s="4">
-        <v>903950907</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="W6" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="4">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>12345</v>
+      </c>
+      <c r="D7">
+        <v>123456789</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>123456789</v>
+      </c>
+      <c r="H7">
+        <v>912345678</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7">
+        <v>999</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>12345</v>
+      </c>
+      <c r="D8">
+        <v>123456789</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>123456789</v>
+      </c>
+      <c r="H8">
+        <v>912345678</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6.0119999999999996</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8">
         <v>18</v>
       </c>
-      <c r="M3" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M8" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="Q8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9">
+        <v>12345</v>
+      </c>
+      <c r="D9">
+        <v>123456789</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>123456789</v>
+      </c>
+      <c r="H9">
+        <v>912345678</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="6">
+        <v>7.0119999999999996</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>12345</v>
+      </c>
+      <c r="D10">
+        <v>123456789</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>123456789</v>
+      </c>
+      <c r="H10">
+        <v>912345678</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="6">
+        <v>8.0120000000000005</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="Q3" s="4">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="4">
-        <v>123456</v>
-      </c>
-      <c r="W3" s="4">
-        <v>12</v>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>12345</v>
+      </c>
+      <c r="D11">
+        <v>123456789</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>123456789</v>
+      </c>
+      <c r="H11">
+        <v>912345678</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="6">
+        <v>9.0120000000000005</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11">
+        <v>999</v>
+      </c>
+      <c r="T11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12">
+        <v>12345</v>
+      </c>
+      <c r="D12">
+        <v>123456789</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>123456789</v>
+      </c>
+      <c r="H12">
+        <v>912345678</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="6">
+        <v>10.012</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>12345</v>
+      </c>
+      <c r="D13">
+        <v>123456789</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>123456789</v>
+      </c>
+      <c r="H13">
+        <v>912345678</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="6">
+        <v>11.012</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13">
+        <v>999</v>
+      </c>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
+        <v>12345</v>
+      </c>
+      <c r="D14">
+        <v>123456789</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <v>123456789</v>
+      </c>
+      <c r="H14">
+        <v>912345678</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="6">
+        <v>12.012</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14">
+        <v>999</v>
+      </c>
+      <c r="T14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" t="s">
+        <v>89</v>
+      </c>
+      <c r="V14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>12345</v>
+      </c>
+      <c r="D15">
+        <v>123456789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15">
+        <v>123456789</v>
+      </c>
+      <c r="H15">
+        <v>912345678</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="6">
+        <v>13.012</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15">
+        <v>999</v>
+      </c>
+      <c r="T15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16">
+        <v>12345</v>
+      </c>
+      <c r="D16">
+        <v>123456789</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16">
+        <v>123456789</v>
+      </c>
+      <c r="H16">
+        <v>912345678</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="6">
+        <v>14.012</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16">
+        <v>999</v>
+      </c>
+      <c r="T16" t="s">
+        <v>99</v>
+      </c>
+      <c r="U16" t="s">
+        <v>99</v>
+      </c>
+      <c r="V16" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
